--- a/biology/Botanique/Mazaceae/Mazaceae.xlsx
+++ b/biology/Botanique/Mazaceae/Mazaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Mazaceae sont une famille de plantes à fleurs de l'ordre des Lamiales. La famille a été décrite par James L. Reveal en 2011[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Mazaceae sont une famille de plantes à fleurs de l'ordre des Lamiales. La famille a été décrite par James L. Reveal en 2011. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Mazus, dérivé du grec μαζοσ / mazos, mamelle, en référence aux papilles mamelonnées qui obstruent l'entrée de la corolle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Mazus, dérivé du grec μαζοσ / mazos, mamelle, en référence aux papilles mamelonnées qui obstruent l'entrée de la corolle.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres de cette famille étaient jusqu'à récemment inclus dans les Phrymaceae et dans les classifications plus anciennes, ils étaient placés dans Scrophulariaceae.
 </t>
@@ -573,16 +589,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (13 mai 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (13 mai 2021) :
 Dodartia L.
 Lancea (en) Hook.f. &amp; Thomson
 Mazus Lour.
-Selon NCBI  (13 mai 2021)[4] :
+Selon NCBI  (13 mai 2021) :
 Mazus Lour., 1790
 Puchiumazus Bo Li, D.G.Zhang &amp; C.L.Xiang, 2021
-Selon Tropicos                                           (13 mai 2021)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (13 mai 2021) (Attention liste brute contenant possiblement des synonymes) :
 Mazus Lour.
 Puchiumazus Bo Li, D.G. Zhang &amp; C.L. Xiang</t>
         </is>
